--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06008085-E807-4925-B9C4-2A4159E85EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22327A-2A32-45E1-BDE1-12188D2F0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -53,6 +49,10 @@
   </si>
   <si>
     <t xml:space="preserve">	SEVENTEEN LIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -472,10 +472,10 @@
         <v>45773</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -483,10 +483,10 @@
         <v>45774</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22327A-2A32-45E1-BDE1-12188D2F0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D0FB7-CADE-481D-B5B0-C03C3440FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -48,11 +48,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	SEVENTEEN LIVE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>🔵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サザンオールスターズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髭男dism</t>
+    <rPh sb="0" eb="1">
+      <t>ヒゲ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G-DRAGON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J-HOPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケGofes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEVENTEEN LIVE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -461,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -475,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -486,7 +520,139 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>45794</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>45794</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>45803</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>45806</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>45807</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D0FB7-CADE-481D-B5B0-C03C3440FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91E3327-8D94-4CB2-ACF1-5DF194ABB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -86,7 +86,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEVENTEEN LIVE</t>
+    <t>GLAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEVENTEEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三代目JSOUL</t>
+    <rPh sb="0" eb="3">
+      <t>サンダイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JIN（BTS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>king&amp;prince</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENHYPEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻坂46</t>
+    <rPh sb="0" eb="2">
+      <t>サクラザカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻坂47</t>
+    <rPh sb="0" eb="2">
+      <t>サクラザカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福山雅治</t>
+    <rPh sb="0" eb="4">
+      <t>フクヤママサハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンオクロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星野源</t>
+    <rPh sb="0" eb="3">
+      <t>ホシノゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saucy Dog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｖａｕｎｄｙ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -509,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -520,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -653,6 +719,215 @@
       </c>
       <c r="C15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>45840</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>45841</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>45850</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>45851</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>45857</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>45858</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>45859</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>45871</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>45892</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>45893</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>45899</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>45913</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>45914</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <v>46095</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91E3327-8D94-4CB2-ACF1-5DF194ABB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08768C-5E01-460C-AE64-CA86D0587DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -120,13 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>櫻坂47</t>
-    <rPh sb="0" eb="2">
-      <t>サクラザカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>福山雅治</t>
     <rPh sb="0" eb="4">
       <t>フクヤママサハル</t>
@@ -150,6 +143,10 @@
   </si>
   <si>
     <t>Ｖａｕｎｄｙ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ado</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -850,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -861,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -872,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -883,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -894,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -905,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -916,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -927,6 +924,28 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>45983</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
     </row>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08768C-5E01-460C-AE64-CA86D0587DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C16B1-4D16-4864-B90F-60CC8C662BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -149,12 +149,35 @@
     <t>ado</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEST. 万博記念公園</t>
+    <rPh sb="6" eb="8">
+      <t>バンパク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キネンコウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +206,13 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -949,6 +979,25 @@
         <v>23</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <v>45942</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C16B1-4D16-4864-B90F-60CC8C662BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2892373C-1F15-409D-9025-01045B4589AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -997,6 +997,9 @@
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2892373C-1F15-409D-9025-01045B4589AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23FEEE9-B6B9-448A-B341-A176C7943E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポケGofes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GLAY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,6 +165,13 @@
     </rPh>
     <rPh sb="8" eb="12">
       <t>キネンコウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケGofes 万博記念公園</t>
+    <rPh sb="8" eb="14">
+      <t>バンパクキネンコウエン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -602,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -613,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -690,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -701,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -712,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -723,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -756,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -767,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -778,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -789,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -800,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -811,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -822,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -833,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -844,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -855,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -866,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -877,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -888,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -899,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -910,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -921,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -932,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -943,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -954,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -965,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -976,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -984,10 +987,10 @@
         <v>45942</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -995,10 +998,10 @@
         <v>45943</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
         <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23FEEE9-B6B9-448A-B341-A176C7943E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B40ED-DEA1-4ABF-8B56-EF9540371CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -173,6 +173,10 @@
     <rPh sb="8" eb="14">
       <t>バンパクキネンコウエン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミセスグリーン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1004,6 +1008,28 @@
         <v>24</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B40ED-DEA1-4ABF-8B56-EF9540371CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD49BC3-E005-4261-ABAB-E2A197F71D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -179,12 +179,20 @@
     <t>ミセスグリーン</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>三代目 J SOUL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXILE</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +229,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1030,6 +1048,50 @@
         <v>26</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <v>45990</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD49BC3-E005-4261-ABAB-E2A197F71D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB9537-D73B-40C4-9E45-93F20F12CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -185,6 +185,14 @@
   </si>
   <si>
     <t>EXILE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レディーガガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TWICE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1092,6 +1100,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
+        <v>45864</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB9537-D73B-40C4-9E45-93F20F12CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FC267-8B39-498C-8107-A16C89E998F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>TWICE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MUSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1144,6 +1148,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FC267-8B39-498C-8107-A16C89E998F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CD8EA-1584-4579-80C4-C16B6B696ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>MUSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TREASURE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -607,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,6 +1163,28 @@
         <v>31</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CD8EA-1584-4579-80C4-C16B6B696ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BBA4B0-0B57-4013-BE59-4C6A7A464B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>TREASURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SONIC OSAKA EXPO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1185,6 +1189,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BBA4B0-0B57-4013-BE59-4C6A7A464B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7D963-CE51-49F8-AD5B-6D6C298E7937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -193,10 +193,6 @@
   </si>
   <si>
     <t>TWICE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MUSE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -615,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1158,7 +1154,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>45923</v>
+        <v>46063</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>2</v>
@@ -1169,35 +1165,24 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>46064</v>
+        <v>45923</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3">
-        <v>45923</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\売上・レベニュー\githubレベニューツール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7D963-CE51-49F8-AD5B-6D6C298E7937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07075CAB-2F09-4F27-A094-62AF26870812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1185,6 +1185,531 @@
         <v>32</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>45995</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
+        <v>45997</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07075CAB-2F09-4F27-A094-62AF26870812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65EB6D5-C722-46D2-BB69-B7D52D740722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -201,6 +201,17 @@
   </si>
   <si>
     <t>SONIC OSAKA EXPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにわ男子</t>
+    <rPh sb="3" eb="5">
+      <t>ダンシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -613,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1219,25 +1230,81 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3">
+        <v>46004</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3">
+        <v>46053</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3"/>
@@ -1713,5 +1780,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65EB6D5-C722-46D2-BB69-B7D52D740722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFA38AF-EF9C-40B7-8360-19F6F2F980E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -212,6 +212,10 @@
     <rPh sb="3" eb="5">
       <t>ダンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B'z</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,7 +629,7 @@
   <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C62" sqref="C62:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1307,10 +1311,26 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>46011</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFA38AF-EF9C-40B7-8360-19F6F2F980E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6598410-0D35-4999-9C1E-5C2422B4B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -216,6 +216,23 @@
   </si>
   <si>
     <t>B'z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>淀川花火大会</t>
+    <rPh sb="0" eb="2">
+      <t>ヨドガワ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ハナビタイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪マラソン</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,54 +1350,70 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <v>45948</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
+        <v>46075</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6598410-0D35-4999-9C1E-5C2422B4B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F882999-D2D4-480B-94B1-0F92B7DAB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -233,6 +233,10 @@
     <rPh sb="0" eb="2">
       <t>オオサカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timelesz</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,7 +650,7 @@
   <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1372,10 +1376,26 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3">
+        <v>46382</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3">
+        <v>46383</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F882999-D2D4-480B-94B1-0F92B7DAB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EFB74-C21C-45B3-A95E-FC91EEF3A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>46382</v>
+        <v>46017</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>46383</v>
+        <v>46018</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>2</v>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EFB74-C21C-45B3-A95E-FC91EEF3A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3BD3A-F9AE-48AE-B682-8F52A757141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,18 +1036,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>45983</v>
+        <v>46096</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>45984</v>
+        <v>45983</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>2</v>
@@ -1058,18 +1058,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>45942</v>
+        <v>45984</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>45943</v>
+        <v>45942</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>23</v>
@@ -1080,18 +1080,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
-        <v>45976</v>
+        <v>45943</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>45977</v>
+        <v>45976</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
@@ -1102,40 +1102,40 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>45934</v>
+        <v>45977</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>45935</v>
+        <v>45934</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>45990</v>
+        <v>45935</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
@@ -1146,18 +1146,18 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
-        <v>46043</v>
+        <v>45991</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
-        <v>46044</v>
+        <v>46043</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>2</v>
@@ -1168,18 +1168,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
-        <v>45864</v>
+        <v>46044</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
-        <v>45865</v>
+        <v>45864</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>2</v>
@@ -1190,18 +1190,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
-        <v>46063</v>
+        <v>45865</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
-        <v>46064</v>
+        <v>46063</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>2</v>
@@ -1212,29 +1212,29 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
-        <v>45923</v>
+        <v>46064</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
-        <v>45995</v>
+        <v>45923</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>2</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>2</v>
@@ -1256,18 +1256,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
-        <v>46004</v>
+        <v>45998</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -1278,18 +1278,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
-        <v>46053</v>
+        <v>46005</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>2</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>46055</v>
+        <v>46054</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>2</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>46057</v>
+        <v>46056</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>2</v>
@@ -1333,18 +1333,18 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
-        <v>46011</v>
+        <v>46057</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>46012</v>
+        <v>46011</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
@@ -1355,40 +1355,40 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
-        <v>45948</v>
+        <v>46012</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>46075</v>
+        <v>45948</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>46017</v>
+        <v>46075</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>46018</v>
+        <v>46017</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>2</v>
@@ -1398,7 +1398,15 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3">
+        <v>46018</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3"/>
@@ -1849,6 +1857,9 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3BD3A-F9AE-48AE-B682-8F52A757141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEA4AD9-8893-460E-9B11-569FA1C1AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ｖａｕｎｄｙ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ado</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -237,6 +233,10 @@
   </si>
   <si>
     <t>timelesz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vaundy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1072,10 +1072,10 @@
         <v>45942</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1083,10 +1083,10 @@
         <v>45943</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1130,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1369,10 +1369,10 @@
         <v>45948</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1380,10 +1380,10 @@
         <v>46075</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEA4AD9-8893-460E-9B11-569FA1C1AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19A624-3A72-46FD-ADA5-17FC1A51B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>Vaundy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snow Man</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -649,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1409,16 +1413,48 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3">
+        <v>46037</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3">
+        <v>46038</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3">
+        <v>46039</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19A624-3A72-46FD-ADA5-17FC1A51B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617398F-BB6F-4890-92DB-05122B78333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>Snow Man</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hey! Say! JUMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E73" sqref="D72:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1457,13 +1461,37 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3">
+        <v>46032</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3"/>
+      <c r="A74" s="3">
+        <v>46033</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3"/>
+      <c r="A75" s="3">
+        <v>46034</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617398F-BB6F-4890-92DB-05122B78333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C60A77-CC81-4CF9-8F6B-2CDC7A945CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>Hey! Say! JUMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEST</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,7 +662,7 @@
   <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E73" sqref="D72:E73"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1494,10 +1498,26 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3"/>
+      <c r="A76" s="3">
+        <v>46022</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3"/>
+      <c r="A77" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C60A77-CC81-4CF9-8F6B-2CDC7A945CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825A7D4-15BF-4940-92FF-F2E7DB73D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>WEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TxT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1520,10 +1524,26 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3">
+        <v>46060</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3"/>
+      <c r="A79" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825A7D4-15BF-4940-92FF-F2E7DB73D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C3F0D4-7A5C-453A-96E5-0AA56F17D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -252,7 +252,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TxT</t>
+    <t>TXT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
-        <v>46053</v>
+        <v>46052</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>2</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>2</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
-        <v>46055</v>
+        <v>46054</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>2</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>2</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
-        <v>46057</v>
+        <v>46056</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
@@ -1360,18 +1360,18 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
-        <v>46011</v>
+        <v>46057</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
-        <v>46012</v>
+        <v>46011</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
@@ -1382,40 +1382,40 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
-        <v>45948</v>
+        <v>46012</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
-        <v>46075</v>
+        <v>45948</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
-        <v>46017</v>
+        <v>46075</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
-        <v>46018</v>
+        <v>46017</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>2</v>
@@ -1426,18 +1426,18 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
-        <v>46037</v>
+        <v>46018</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
-        <v>46038</v>
+        <v>46037</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>2</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
-        <v>46039</v>
+        <v>46038</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>2</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>2</v>
@@ -1470,18 +1470,18 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
-        <v>46032</v>
+        <v>46040</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
-        <v>46033</v>
+        <v>46032</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>2</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
-        <v>46034</v>
+        <v>46033</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>2</v>
@@ -1503,18 +1503,18 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
-        <v>46022</v>
+        <v>46034</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
-        <v>46023</v>
+        <v>46022</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1525,18 +1525,18 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
-        <v>46060</v>
+        <v>46023</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
-        <v>46061</v>
+        <v>46060</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>2</v>
@@ -1546,7 +1546,15 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="3"/>
+      <c r="A80" s="3">
+        <v>46061</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3"/>
@@ -1964,6 +1972,9 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C3F0D4-7A5C-453A-96E5-0AA56F17D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33170A-4634-4A42-B418-FDF7315FD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aespa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -665,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1556,52 +1560,68 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3">
+        <v>46123</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3">
+        <v>46124</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33170A-4634-4A42-B418-FDF7315FD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A00603D-8599-4A07-A70B-F0D9CCBB5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>aespa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>back number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -669,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1583,10 +1587,26 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3"/>
+      <c r="A83" s="3">
+        <v>46165</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="3"/>
+      <c r="A84" s="3">
+        <v>46166</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A00603D-8599-4A07-A70B-F0D9CCBB5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B78DE-8443-4EBA-BC9D-AAB2FCD3546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="46">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -261,6 +261,13 @@
   </si>
   <si>
     <t>back number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵐</t>
+    <rPh sb="0" eb="1">
+      <t>アラシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,7 +681,7 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C85" sqref="C85:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1609,13 +1616,37 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="3"/>
+      <c r="A85" s="3">
+        <v>46157</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="3"/>
+      <c r="A86" s="3">
+        <v>46158</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="3"/>
+      <c r="A87" s="3">
+        <v>46159</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B78DE-8443-4EBA-BC9D-AAB2FCD3546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE925B7-8FA1-4D9C-92F1-BEF630D504F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +268,10 @@
     <rPh sb="0" eb="1">
       <t>アラシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUPER BEAVER</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -680,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1649,10 +1653,26 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3">
+        <v>46235</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3">
+        <v>46236</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE925B7-8FA1-4D9C-92F1-BEF630D504F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CD7B8-0CD6-4497-B7C3-88F5BD1EEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>SUPER BEAVER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,7 +689,7 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="B89" sqref="B89:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1675,10 +1679,26 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3">
+        <v>46130</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3">
+        <v>46131</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CD7B8-0CD6-4497-B7C3-88F5BD1EEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D6C60B-25F4-4D66-B056-031C6340F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="49">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -276,6 +276,13 @@
   </si>
   <si>
     <t>IVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井風</t>
+    <rPh sb="0" eb="3">
+      <t>フジイカゼ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:B91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1701,13 +1708,37 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3">
+        <v>46366</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="3"/>
+      <c r="A93" s="3">
+        <v>46368</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="3"/>
+      <c r="A94" s="3">
+        <v>46369</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D6C60B-25F4-4D66-B056-031C6340F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E083A-DA23-46F1-997C-A6AC92180B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="50">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +283,10 @@
     <rPh sb="0" eb="3">
       <t>フジイカゼ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セカオワ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,7 +700,7 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1741,10 +1745,26 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3">
+        <v>46214</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="3"/>
+      <c r="A96" s="3">
+        <v>46215</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E083A-DA23-46F1-997C-A6AC92180B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B695E-4ED0-4EAD-BD13-77730B33C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="51">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +287,13 @@
   </si>
   <si>
     <t>セカオワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サマソニ【万博】</t>
+    <rPh sb="5" eb="7">
+      <t>バンパク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -699,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1766,52 +1773,68 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3">
+        <v>46248</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3">
+        <v>46249</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B695E-4ED0-4EAD-BD13-77730B33C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256478F-78BB-4D32-90DA-FF5757323522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,10 @@
     <rPh sb="5" eb="7">
       <t>バンパク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOASOBI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -707,7 +711,7 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1796,10 +1800,26 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="3"/>
+      <c r="A99" s="3">
+        <v>46319</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3">
+        <v>46320</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256478F-78BB-4D32-90DA-FF5757323522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC545A0-226D-49DB-BF1B-663EE4CED611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>YOASOBI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キンプリ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1822,16 +1826,48 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="3"/>
+      <c r="A101" s="3">
+        <v>46146</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="3"/>
+      <c r="A102" s="3">
+        <v>46147</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="3"/>
+      <c r="A103" s="3">
+        <v>46047</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="3"/>
+      <c r="A104" s="3">
+        <v>46048</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3"/>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC545A0-226D-49DB-BF1B-663EE4CED611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FEE5CC-81F8-4103-9AF0-D72A19BE90A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1830,7 +1830,7 @@
         <v>46146</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -1841,7 +1841,7 @@
         <v>46147</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>

--- a/event_data.xlsx
+++ b/event_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmizu\OneDrive\ドキュメント\githubレベニューツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FEE5CC-81F8-4103-9AF0-D72A19BE90A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E63B0-E3DE-49C1-93B6-20C0690B92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86685B32-756C-410B-86C7-1E0CBD1BEB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>キンプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三代目</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -714,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8AC90-FD5C-4539-9ECB-198FFF36175A}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1870,10 +1874,26 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="3"/>
+      <c r="A105" s="3">
+        <v>46204</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="3"/>
+      <c r="A106" s="3">
+        <v>46205</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3"/>
